--- a/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE01B21-903B-4477-ADEB-473770427ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C75A484-5E4D-41ED-8B0A-6ED38BD9ECD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,10 +32,19 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={85637300-450C-4380-BF4A-D6C68B5985E0}</author>
     <author>tc={74640F05-764D-4B33-BCC4-F16AE36A81EB}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{74640F05-764D-4B33-BCC4-F16AE36A81EB}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{85637300-450C-4380-BF4A-D6C68B5985E0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    If this field is set, test case will use its value to get a list of relations, then pick up the id of the 1st relation as the relationId value to be test and the input parameter "relationId" will be ignored.</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{74640F05-764D-4B33-BCC4-F16AE36A81EB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -48,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
   <si>
     <t>OK</t>
   </si>
@@ -246,13 +255,19 @@
   </si>
   <si>
     <t>good request, get all relations</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>is_instance_of</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +287,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -617,7 +638,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C1" dT="2021-01-18T04:34:12.95" personId="{DC27ECC5-F7F2-49C3-B546-5535111A3B3F}" id="{74640F05-764D-4B33-BCC4-F16AE36A81EB}">
+  <threadedComment ref="C1" dT="2021-01-18T06:55:27.50" personId="{DC27ECC5-F7F2-49C3-B546-5535111A3B3F}" id="{85637300-450C-4380-BF4A-D6C68B5985E0}">
+    <text>If this field is set, test case will use its value to get a list of relations, then pick up the id of the 1st relation as the relationId value to be test and the input parameter "relationId" will be ignored.</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2021-01-18T04:34:12.95" personId="{DC27ECC5-F7F2-49C3-B546-5535111A3B3F}" id="{74640F05-764D-4B33-BCC4-F16AE36A81EB}">
     <text>Note: use the same id may lead to test fail in different environments, as the ids in dev/test/prod environment are different!</text>
   </threadedComment>
 </ThreadedComments>
@@ -1261,21 +1285,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8CB3E4-B830-482F-A87D-FE5107D53FAD}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="12.54296875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="3" width="30.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="12.54296875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -1283,95 +1307,106 @@
         <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="6">
         <v>25018</v>
       </c>
-      <c r="D2" s="6">
-        <v>200</v>
-      </c>
       <c r="E2" s="6">
         <v>200</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="6">
+        <v>200</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="6">
         <v>31233</v>
       </c>
-      <c r="D3" s="6">
-        <v>200</v>
-      </c>
       <c r="E3" s="6">
         <v>200</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="6">
+        <v>200</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>400</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>103000</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2">
         <v>9999</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>500</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C75A484-5E4D-41ED-8B0A-6ED38BD9ECD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AF7A62-E1FD-4BBE-8863-0E2704D35B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="69">
   <si>
     <t>OK</t>
   </si>
@@ -164,9 +164,6 @@
     <t>relationId</t>
   </si>
   <si>
-    <t>bad request</t>
-  </si>
-  <si>
     <t>getRelationById.relationId: id format invalid</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>iEMS-Entity-mgmt-Test-9-var2</t>
   </si>
   <si>
-    <t>{"id":"9999","label":"Device","properties":{"metadata_node_type":"entity","metadata_node_domain":"iEMS","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"iEMS"}</t>
-  </si>
-  <si>
     <t>iEMS-Entity-mgmt-Test-9-var3</t>
   </si>
   <si>
@@ -261,13 +255,22 @@
   </si>
   <si>
     <t>is_instance_of</t>
+  </si>
+  <si>
+    <t>{"id":"99999","label":"Device","properties":{"metadata_node_type":"entity","metadata_node_domain":"iEMS","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"iEMS"}</t>
+  </si>
+  <si>
+    <t>bad request, relationId not exist</t>
+  </si>
+  <si>
+    <t>bad request, relationId is invalid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,12 +290,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -688,13 +685,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -711,13 +708,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -734,13 +731,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -807,19 +804,19 @@
     </row>
     <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2">
         <v>200</v>
@@ -833,7 +830,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -855,7 +852,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -863,7 +860,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2">
         <v>200</v>
@@ -877,7 +874,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -885,7 +882,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2">
         <v>400</v>
@@ -948,13 +945,13 @@
     </row>
     <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -974,7 +971,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -996,7 +993,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -1067,13 +1064,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -1093,7 +1090,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -1115,7 +1112,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -1147,7 +1144,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1180,10 +1177,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
@@ -1198,13 +1195,13 @@
     </row>
     <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2">
         <v>200</v>
@@ -1218,13 +1215,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2">
         <v>200</v>
@@ -1238,7 +1235,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>29</v>
@@ -1258,13 +1255,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2">
         <v>200</v>
@@ -1288,7 +1285,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1307,7 +1304,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>34</v>
@@ -1324,13 +1321,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="6">
         <v>25018</v>
@@ -1347,13 +1344,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" s="6">
         <v>31233</v>
@@ -1370,10 +1367,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
@@ -1386,15 +1383,15 @@
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2">

--- a/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AF7A62-E1FD-4BBE-8863-0E2704D35B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBC4ECE-5DC6-468B-AA04-BB90B6302E20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createEntityInDomain" sheetId="5" r:id="rId1"/>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C10F18-6774-4DA2-A97E-6CA070C2B102}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>1234</v>
+        <v>123456789</v>
       </c>
       <c r="F2" s="2">
         <v>200</v>
@@ -1001,7 +1001,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="5">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="F4" s="2">
         <v>200</v>
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8CB3E4-B830-482F-A87D-FE5107D53FAD}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="E5" s="2">
         <v>500</v>

--- a/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBC4ECE-5DC6-468B-AA04-BB90B6302E20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DF413E-17EE-43C2-B0B9-9F7788671F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="createEntityInDomain" sheetId="5" r:id="rId1"/>
+    <sheet name="createEntity" sheetId="5" r:id="rId1"/>
     <sheet name="updateEntity" sheetId="3" r:id="rId2"/>
     <sheet name="deleteEntity" sheetId="4" r:id="rId3"/>
     <sheet name="getEntityById" sheetId="2" r:id="rId4"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
   <si>
     <t>OK</t>
   </si>
@@ -80,12 +80,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>entity</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -95,15 +89,9 @@
     <t>body</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>abcde123</t>
   </si>
   <si>
-    <t>id format invalid</t>
-  </si>
-  <si>
     <t>bad request, entity id not a number</t>
   </si>
   <si>
@@ -119,30 +107,15 @@
     <t>Device_Modelqwerqwr3r23rwer*()(!@#$%%^&amp;*</t>
   </si>
   <si>
-    <t>no valid label</t>
-  </si>
-  <si>
     <t>bad request, body is empty</t>
   </si>
   <si>
     <t>{}</t>
   </si>
   <si>
-    <t>same entity</t>
-  </si>
-  <si>
-    <t>No message available</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
     <t>entity id invalid</t>
   </si>
   <si>
-    <t>id not exist</t>
-  </si>
-  <si>
     <t>labels</t>
   </si>
   <si>
@@ -164,9 +137,6 @@
     <t>relationId</t>
   </si>
   <si>
-    <t>getRelationById.relationId: id format invalid</t>
-  </si>
-  <si>
     <t>iEMS-Entity-mgmt-Test-1</t>
   </si>
   <si>
@@ -185,9 +155,6 @@
     <t>iEMS-Entity-mgmt-Test-2</t>
   </si>
   <si>
-    <t>{"id":"41","label":"Device","properties":{"metadata_node_type":"entity","metadata_node_domain":"iEMS","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"iEMS"}</t>
-  </si>
-  <si>
     <t>iEMS-Entity-mgmt-Test-9-var1</t>
   </si>
   <si>
@@ -197,9 +164,6 @@
     <t>iEMS-Entity-mgmt-Test-9-var3</t>
   </si>
   <si>
-    <t>{"id":"abcde","label":"Device","properties":{"metadata_node_type":"entity","metadata_node_domain":"iEMS","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"iEMS"}</t>
-  </si>
-  <si>
     <t>iEMS-Entity-mgmt-Test-3</t>
   </si>
   <si>
@@ -257,13 +221,43 @@
     <t>is_instance_of</t>
   </si>
   <si>
-    <t>{"id":"99999","label":"Device","properties":{"metadata_node_type":"entity","metadata_node_domain":"iEMS","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"iEMS"}</t>
-  </si>
-  <si>
     <t>bad request, relationId not exist</t>
   </si>
   <si>
     <t>bad request, relationId is invalid</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>same label</t>
+  </si>
+  <si>
+    <t>label invalid</t>
+  </si>
+  <si>
+    <t>format invalid</t>
+  </si>
+  <si>
+    <t>entity doesn't exist</t>
+  </si>
+  <si>
+    <t>is empty</t>
+  </si>
+  <si>
+    <t>not exist</t>
+  </si>
+  <si>
+    <t>relation doesn't exist</t>
+  </si>
+  <si>
+    <t>{"id":"41","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"iEMS","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"iEMS"}</t>
+  </si>
+  <si>
+    <t>{"id":"99999","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"iEMS","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"iEMS"}</t>
+  </si>
+  <si>
+    <t>{"id":"abcde","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"iEMS","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"iEMS"}</t>
   </si>
 </sst>
 </file>
@@ -649,7 +643,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -662,16 +656,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -685,13 +679,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -708,13 +702,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -723,24 +717,24 @@
         <v>400</v>
       </c>
       <c r="F3" s="2">
-        <v>10300</v>
+        <v>103000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <v>400</v>
@@ -749,7 +743,7 @@
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +758,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -778,19 +772,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
@@ -804,19 +798,19 @@
     </row>
     <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2">
         <v>200</v>
@@ -830,59 +824,59 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2">
-        <v>500</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>400</v>
+      </c>
+      <c r="G3" s="2">
+        <v>103000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="2">
-        <v>200</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>400</v>
+      </c>
+      <c r="G4" s="2">
+        <v>103000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F5" s="2">
         <v>400</v>
@@ -891,7 +885,7 @@
         <v>103000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -905,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C10F18-6774-4DA2-A97E-6CA070C2B102}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -919,16 +913,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
@@ -945,13 +939,13 @@
     </row>
     <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -963,23 +957,23 @@
         <v>200</v>
       </c>
       <c r="G2" s="2">
+        <v>200</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
         <v>400</v>
@@ -988,15 +982,15 @@
         <v>103000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1007,10 +1001,10 @@
         <v>200</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>103000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1024,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ECACFD-75AA-40A8-8500-FACA5E36F33B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1038,16 +1032,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
@@ -1064,13 +1058,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -1090,15 +1084,15 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
         <v>400</v>
@@ -1107,29 +1101,29 @@
         <v>103000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="5">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="F4" s="2">
-        <v>500</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>200</v>
+      </c>
+      <c r="G4" s="2">
+        <v>103000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1157,13 +1151,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1177,10 +1171,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
@@ -1195,13 +1189,13 @@
     </row>
     <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2">
         <v>200</v>
@@ -1215,13 +1209,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2">
         <v>200</v>
@@ -1235,13 +1229,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>200</v>
@@ -1255,13 +1249,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2">
         <v>200</v>
@@ -1285,7 +1279,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1298,16 +1292,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -1321,13 +1315,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6">
         <v>25018</v>
@@ -1344,13 +1338,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D3" s="6">
         <v>31233</v>
@@ -1367,14 +1361,14 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>400</v>
@@ -1383,28 +1377,28 @@
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2">
         <v>999999</v>
       </c>
       <c r="E5" s="2">
-        <v>500</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>200</v>
+      </c>
+      <c r="F5" s="2">
+        <v>103000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DF413E-17EE-43C2-B0B9-9F7788671F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5928F5F7-3C2C-42BC-99BD-28572D6AD156}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createEntity" sheetId="5" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
   <si>
     <t>OK</t>
   </si>
@@ -101,163 +101,193 @@
     <t>bad request, entity already exist</t>
   </si>
   <si>
+    <t>bad request, body is empty</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>entity id invalid</t>
+  </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>bad request, label not exist</t>
+  </si>
+  <si>
+    <t>good request, single valid label</t>
+  </si>
+  <si>
+    <t>good request, multiple valid labels</t>
+  </si>
+  <si>
+    <t>not_exist_relation</t>
+  </si>
+  <si>
+    <t>good request, mix of valid and invalid labels</t>
+  </si>
+  <si>
+    <t>relationId</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-1</t>
+  </si>
+  <si>
+    <t>iEMS</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-7</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-2</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-9-var1</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-9-var2</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-9-var3</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-3</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-6-var1</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-6-var2</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-4</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-5-var1</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-17-var2</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-17-var3</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-17-var4</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-17-var5</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-18</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-19-var1</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-19-var2</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>unit, has</t>
+  </si>
+  <si>
+    <t>unit, not_exist_relation</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-17-var1</t>
+  </si>
+  <si>
+    <t>good request, get all relations</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>is_instance_of</t>
+  </si>
+  <si>
+    <t>bad request, relationId not exist</t>
+  </si>
+  <si>
+    <t>bad request, relationId is invalid</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>same label</t>
+  </si>
+  <si>
+    <t>format invalid</t>
+  </si>
+  <si>
+    <t>entity doesn't exist</t>
+  </si>
+  <si>
+    <t>is empty</t>
+  </si>
+  <si>
+    <t>not exist</t>
+  </si>
+  <si>
+    <t>relation doesn't exist</t>
+  </si>
+  <si>
+    <t>{"id":"41","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"iEMS","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"iEMS"}</t>
+  </si>
+  <si>
+    <t>{"id":"99999","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"iEMS","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"iEMS"}</t>
+  </si>
+  <si>
+    <t>{"id":"abcde","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"iEMS","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"iEMS"}</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>nodeType</t>
+  </si>
+  <si>
+    <t>metadata_node_type</t>
+  </si>
+  <si>
+    <t>metadata_node_domain</t>
+  </si>
+  <si>
+    <t>additional_prop1</t>
+  </si>
+  <si>
+    <t>additional_prop2</t>
+  </si>
+  <si>
+    <t>connectedRelationNumber</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>value2</t>
+  </si>
+  <si>
+    <t>ENTITY</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-8</t>
+  </si>
+  <si>
     <t>bad request, input contains strange characters</t>
   </si>
   <si>
     <t>Device_Modelqwerqwr3r23rwer*()(!@#$%%^&amp;*</t>
   </si>
   <si>
-    <t>bad request, body is empty</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>entity id invalid</t>
-  </si>
-  <si>
-    <t>labels</t>
-  </si>
-  <si>
-    <t>bad request, label not exist</t>
-  </si>
-  <si>
-    <t>good request, single valid label</t>
-  </si>
-  <si>
-    <t>good request, multiple valid labels</t>
-  </si>
-  <si>
-    <t>not_exist_relation</t>
-  </si>
-  <si>
-    <t>good request, mix of valid and invalid labels</t>
-  </si>
-  <si>
-    <t>relationId</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-1</t>
-  </si>
-  <si>
-    <t>iEMS</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-7</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-8</t>
-  </si>
-  <si>
-    <t>iEMSqwerqwr3r23rwer*()(!@#$%%^&amp;*</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-2</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-9-var1</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-9-var2</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-9-var3</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-3</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-6-var1</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-6-var2</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-4</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-5-var1</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-17-var2</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-17-var3</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-17-var4</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-17-var5</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-18</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-19-var1</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-19-var2</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>unit, has</t>
-  </si>
-  <si>
-    <t>unit, not_exist_relation</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-17-var1</t>
-  </si>
-  <si>
-    <t>good request, get all relations</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>is_instance_of</t>
-  </si>
-  <si>
-    <t>bad request, relationId not exist</t>
-  </si>
-  <si>
-    <t>bad request, relationId is invalid</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>same label</t>
-  </si>
-  <si>
     <t>label invalid</t>
-  </si>
-  <si>
-    <t>format invalid</t>
-  </si>
-  <si>
-    <t>entity doesn't exist</t>
-  </si>
-  <si>
-    <t>is empty</t>
-  </si>
-  <si>
-    <t>not exist</t>
-  </si>
-  <si>
-    <t>relation doesn't exist</t>
-  </si>
-  <si>
-    <t>{"id":"41","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"iEMS","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"iEMS"}</t>
-  </si>
-  <si>
-    <t>{"id":"99999","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"iEMS","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"iEMS"}</t>
-  </si>
-  <si>
-    <t>{"id":"abcde","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"iEMS","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"iEMS"}</t>
   </si>
 </sst>
 </file>
@@ -333,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -343,6 +373,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,110 +677,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CD2C6C-7513-4EBA-9D12-F75700A492B3}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.6328125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="12.54296875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="20.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="L1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1234</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>200</v>
+      </c>
+      <c r="L2" s="9">
+        <v>100000</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
-        <v>200</v>
-      </c>
-      <c r="F2" s="2">
-        <v>200</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
         <v>400</v>
       </c>
-      <c r="F3" s="2">
+      <c r="L3" s="9">
         <v>103000</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="M3" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="9">
         <v>400</v>
       </c>
-      <c r="F4" s="2">
+      <c r="L4" s="9">
         <v>103000</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>58</v>
+      <c r="M4" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -755,22 +845,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7AC29F-128C-4F8E-8DB9-32DDC8738C5B}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="12.54296875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -778,114 +868,105 @@
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>64</v>
+      <c r="D2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2">
+        <v>200</v>
       </c>
       <c r="F2" s="2">
         <v>200</v>
       </c>
-      <c r="G2" s="2">
-        <v>200</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>400</v>
       </c>
       <c r="F3" s="2">
-        <v>400</v>
-      </c>
-      <c r="G3" s="2">
         <v>103000</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
+      <c r="D4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2">
+        <v>400</v>
       </c>
       <c r="F4" s="2">
-        <v>400</v>
-      </c>
-      <c r="G4" s="2">
         <v>103000</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>66</v>
+      <c r="D5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="2">
+        <v>400</v>
       </c>
       <c r="F5" s="2">
-        <v>400</v>
-      </c>
-      <c r="G5" s="2">
         <v>103000</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -903,15 +984,15 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.6328125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="12.54296875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.6640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="12.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -919,10 +1000,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
@@ -937,15 +1018,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -963,9 +1044,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -982,12 +1063,12 @@
         <v>103000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -1004,7 +1085,7 @@
         <v>103000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1018,16 +1099,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ECACFD-75AA-40A8-8500-FACA5E36F33B}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.6328125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="12.54296875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.6640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="12.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1038,10 +1119,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
@@ -1058,13 +1139,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -1073,7 +1154,7 @@
         <v>1234</v>
       </c>
       <c r="F2" s="2">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="G2" s="2">
         <v>200</v>
@@ -1084,7 +1165,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -1101,12 +1182,12 @@
         <v>103000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -1123,7 +1204,7 @@
         <v>103000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1141,15 +1222,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="12.54296875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="12.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1157,7 +1238,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1169,12 +1250,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
@@ -1187,15 +1268,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2">
         <v>200</v>
@@ -1207,15 +1288,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2">
         <v>200</v>
@@ -1227,15 +1308,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
         <v>200</v>
@@ -1247,15 +1328,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2">
         <v>200</v>
@@ -1282,12 +1363,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="30.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="12.54296875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="3" width="30.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1298,10 +1379,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -1315,13 +1396,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" s="6">
         <v>25018</v>
@@ -1338,13 +1419,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D3" s="6">
         <v>31233</v>
@@ -1361,10 +1442,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
@@ -1377,15 +1458,15 @@
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2">
@@ -1398,7 +1479,7 @@
         <v>103000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5928F5F7-3C2C-42BC-99BD-28572D6AD156}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177F6F8E-6377-43D0-AEE2-DB973521E238}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -236,9 +236,6 @@
     <t>relation doesn't exist</t>
   </si>
   <si>
-    <t>{"id":"41","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"iEMS","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"iEMS"}</t>
-  </si>
-  <si>
     <t>{"id":"99999","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"iEMS","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"iEMS"}</t>
   </si>
   <si>
@@ -288,6 +285,20 @@
   </si>
   <si>
     <t>label invalid</t>
+  </si>
+  <si>
+    <t>{
+  "id" : "1234",
+  "label" : "testEntity1",
+  "properties" : {
+    "additional_prop1" : "value1",
+    "additional_prop2" : "value2",
+    "metadata_node_type" : "entity",
+    "metadata_node_domain" : "iEMS"
+  },
+  "nodeType" : "ENTITY",
+  "connectedRelationNumber" : 0
+}</t>
   </si>
 </sst>
 </file>
@@ -363,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -380,6 +391,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,7 +703,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -714,22 +737,22 @@
         <v>48</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>5</v>
@@ -755,19 +778,19 @@
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="J2" s="11">
         <v>0</v>
@@ -779,7 +802,7 @@
         <v>100000</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -811,14 +834,14 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -833,7 +856,7 @@
         <v>103000</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -848,124 +871,124 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="12.5546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="2" width="30.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="13" customWidth="1"/>
+    <col min="5" max="7" width="12.5546875" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="14">
+        <v>200</v>
+      </c>
+      <c r="F2" s="14">
+        <v>200</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14">
+        <v>400</v>
+      </c>
+      <c r="F3" s="14">
+        <v>103000</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="2">
-        <v>200</v>
-      </c>
-      <c r="F2" s="2">
-        <v>200</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="E4" s="14">
         <v>400</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="14">
         <v>103000</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="14">
         <v>400</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="14">
         <v>103000</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="2">
-        <v>400</v>
-      </c>
-      <c r="F5" s="2">
-        <v>103000</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="14" t="s">
         <v>16</v>
       </c>
     </row>

--- a/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177F6F8E-6377-43D0-AEE2-DB973521E238}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3899112-158A-4170-9F0F-7283C385E517}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createEntity" sheetId="5" r:id="rId1"/>
     <sheet name="updateEntity" sheetId="3" r:id="rId2"/>
-    <sheet name="deleteEntity" sheetId="4" r:id="rId3"/>
-    <sheet name="getEntityById" sheetId="2" r:id="rId4"/>
-    <sheet name="getRelations" sheetId="6" r:id="rId5"/>
-    <sheet name="getRelationById" sheetId="7" r:id="rId6"/>
+    <sheet name="getEntityById" sheetId="2" r:id="rId3"/>
+    <sheet name="deleteEntity" sheetId="4" r:id="rId4"/>
+    <sheet name="getGraph" sheetId="8" r:id="rId5"/>
+    <sheet name="getRelations" sheetId="6" r:id="rId6"/>
+    <sheet name="getRelationById" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -57,10 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
-  <si>
-    <t>OK</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
   <si>
     <t>testEntity1</t>
   </si>
@@ -215,9 +213,6 @@
     <t>bad request, relationId is invalid</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
     <t>same label</t>
   </si>
   <si>
@@ -236,12 +231,6 @@
     <t>relation doesn't exist</t>
   </si>
   <si>
-    <t>{"id":"99999","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"iEMS","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"iEMS"}</t>
-  </si>
-  <si>
-    <t>{"id":"abcde","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"iEMS","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"iEMS"}</t>
-  </si>
-  <si>
     <t>success</t>
   </si>
   <si>
@@ -288,16 +277,44 @@
   </si>
   <si>
     <t>{
-  "id" : "1234",
+  "id" : "54397",
   "label" : "testEntity1",
   "properties" : {
-    "additional_prop1" : "value1",
-    "additional_prop2" : "value2",
+    "additional_prop1" : "value1ForUpdate",
+    "additional_prop2" : "value2ForUpdate",
     "metadata_node_type" : "entity",
-    "metadata_node_domain" : "iEMS"
+    "metadata_node_domain" : "iEMSForUpdate"
   },
   "nodeType" : "ENTITY",
   "connectedRelationNumber" : 0
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id":"abcde",
+    "label":"testEntity1",
+    "properties":{
+        "metadata_node_type":"entity",
+        "metadata_node_domain":"iEMS",
+        "additional_prop1":"value1",
+        "additional_prop2":"value2"
+    },
+    "nodeType":"ENTITY",
+    "location":"iEMS"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id":"99999",
+    "label":"testEntity1",
+    "properties":{
+        "metadata_node_type":"entity",
+        "metadata_node_domain":"iEMS",
+        "additional_prop1":"value1",
+        "additional_prop2":"value2"
+    },
+    "nodeType":"ENTITY",
+    "location":"iEMS"
 }</t>
   </si>
 </sst>
@@ -703,7 +720,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -725,72 +742,72 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="K1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="9">
         <v>1234</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J2" s="11">
         <v>0</v>
@@ -802,19 +819,19 @@
         <v>100000</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -829,19 +846,19 @@
         <v>103000</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -856,7 +873,7 @@
         <v>103000</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7AC29F-128C-4F8E-8DB9-32DDC8738C5B}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -885,60 +902,60 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="165.6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E2" s="14">
         <v>200</v>
       </c>
       <c r="F2" s="14">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="14">
         <v>400</v>
@@ -947,19 +964,19 @@
         <v>103000</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
-        <v>59</v>
+      <c r="D4" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="E4" s="14">
         <v>400</v>
@@ -968,19 +985,19 @@
         <v>103000</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
-        <v>60</v>
+      <c r="D5" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="E5" s="14">
         <v>400</v>
@@ -989,7 +1006,7 @@
         <v>103000</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1000,115 +1017,111 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C10F18-6774-4DA2-A97E-6CA070C2B102}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ECACFD-75AA-40A8-8500-FACA5E36F33B}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.6640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="12.5546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1234</v>
+      </c>
+      <c r="E2" s="2">
+        <v>200</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>400</v>
+      </c>
+      <c r="F3" s="2">
+        <v>103000</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>123456789</v>
-      </c>
-      <c r="F2" s="2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="5">
+        <v>999999</v>
+      </c>
+      <c r="E4" s="2">
         <v>200</v>
       </c>
-      <c r="G2" s="2">
-        <v>200</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
-        <v>400</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F4" s="2">
         <v>103000</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="5">
-        <v>999999</v>
-      </c>
-      <c r="F4" s="2">
-        <v>200</v>
-      </c>
-      <c r="G4" s="2">
-        <v>103000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>55</v>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1119,115 +1132,107 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ECACFD-75AA-40A8-8500-FACA5E36F33B}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C10F18-6774-4DA2-A97E-6CA070C2B102}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.6640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="12.5546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="1"/>
+    <col min="3" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1234</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="E2" s="2">
+        <v>200</v>
       </c>
       <c r="F2" s="2">
         <v>100000</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>400</v>
+      </c>
+      <c r="F3" s="2">
+        <v>103000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="5">
+        <v>999999</v>
+      </c>
+      <c r="E4" s="2">
         <v>200</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
-        <v>400</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F4" s="2">
         <v>103000</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="5">
-        <v>999999</v>
-      </c>
-      <c r="F4" s="2">
-        <v>200</v>
-      </c>
-      <c r="G4" s="2">
-        <v>103000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>55</v>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1238,137 +1243,155 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B7AC17-C732-4418-992A-1163E8EC11BE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE7825D-C3D3-4455-B765-0D831E376750}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="12.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="6">
         <v>200</v>
       </c>
       <c r="E2" s="6">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2">
         <v>200</v>
       </c>
       <c r="E3" s="2">
-        <v>200</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>0</v>
+        <v>100000</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2">
         <v>200</v>
       </c>
       <c r="E4" s="2">
-        <v>200</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>0</v>
+        <v>100000</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>200</v>
       </c>
       <c r="E5" s="2">
-        <v>200</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>0</v>
+        <v>100000</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2">
         <v>200</v>
       </c>
       <c r="E6" s="2">
-        <v>200</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>0</v>
+        <v>100000</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1378,12 +1401,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8CB3E4-B830-482F-A87D-FE5107D53FAD}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1396,83 +1419,83 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="6">
-        <v>25018</v>
+        <v>108742</v>
       </c>
       <c r="E2" s="6">
         <v>200</v>
       </c>
       <c r="F2" s="6">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="6">
-        <v>31233</v>
+        <v>104263</v>
       </c>
       <c r="E3" s="6">
         <v>200</v>
       </c>
       <c r="F3" s="6">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>400</v>
@@ -1481,15 +1504,15 @@
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2">
@@ -1502,7 +1525,7 @@
         <v>103000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3899112-158A-4170-9F0F-7283C385E517}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABA1A47-83BA-4639-B5C7-2691922ED85D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createEntity" sheetId="5" r:id="rId1"/>
     <sheet name="updateEntity" sheetId="3" r:id="rId2"/>
     <sheet name="getEntityById" sheetId="2" r:id="rId3"/>
-    <sheet name="deleteEntity" sheetId="4" r:id="rId4"/>
-    <sheet name="getGraph" sheetId="8" r:id="rId5"/>
+    <sheet name="filterEntityByProperty" sheetId="9" r:id="rId4"/>
+    <sheet name="deleteEntity" sheetId="4" r:id="rId5"/>
     <sheet name="getRelations" sheetId="6" r:id="rId6"/>
     <sheet name="getRelationById" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="75">
   <si>
     <t>testEntity1</t>
   </si>
@@ -219,16 +219,10 @@
     <t>format invalid</t>
   </si>
   <si>
-    <t>entity doesn't exist</t>
-  </si>
-  <si>
     <t>is empty</t>
   </si>
   <si>
     <t>not exist</t>
-  </si>
-  <si>
-    <t>relation doesn't exist</t>
   </si>
   <si>
     <t>success</t>
@@ -291,31 +285,37 @@
   </si>
   <si>
     <t>{
-    "id":"abcde",
-    "label":"testEntity1",
-    "properties":{
-        "metadata_node_type":"entity",
-        "metadata_node_domain":"iEMS",
-        "additional_prop1":"value1",
-        "additional_prop2":"value2"
-    },
-    "nodeType":"ENTITY",
-    "location":"iEMS"
+  "id" : "abcde",
+  "label" : "testEntity1",
+  "properties" : {
+    "additional_prop1" : "value1ForUpdate",
+    "additional_prop2" : "value2ForUpdate",
+    "metadata_node_type" : "entity",
+    "metadata_node_domain" : "iEMSForUpdate"
+  },
+  "nodeType" : "ENTITY",
+  "connectedRelationNumber" : 0
 }</t>
   </si>
   <si>
     <t>{
-    "id":"99999",
-    "label":"testEntity1",
-    "properties":{
-        "metadata_node_type":"entity",
-        "metadata_node_domain":"iEMS",
-        "additional_prop1":"value1",
-        "additional_prop2":"value2"
-    },
-    "nodeType":"ENTITY",
-    "location":"iEMS"
+  "id" : "99999",
+  "label" : "testEntity1",
+  "properties" : {
+    "additional_prop1" : "value1ForUpdate",
+    "additional_prop2" : "value2ForUpdate",
+    "metadata_node_type" : "entity",
+    "metadata_node_domain" : "iEMSForUpdate"
+  },
+  "nodeType" : "ENTITY",
+  "connectedRelationNumber" : 0
 }</t>
+  </si>
+  <si>
+    <t>entity does not exist</t>
+  </si>
+  <si>
+    <t>relation does not exist</t>
   </si>
 </sst>
 </file>
@@ -720,7 +720,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -754,22 +754,22 @@
         <v>47</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>4</v>
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="J2" s="11">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>100000</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -851,14 +851,14 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -873,7 +873,7 @@
         <v>103000</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -885,10 +885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7AC29F-128C-4F8E-8DB9-32DDC8738C5B}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -923,60 +923,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="3" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="D3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="14">
         <v>200</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F3" s="14">
         <v>100000</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="G3" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="14">
-        <v>400</v>
-      </c>
-      <c r="F3" s="14">
-        <v>103000</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="165.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="E4" s="14">
         <v>400</v>
@@ -985,19 +964,19 @@
         <v>103000</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="165.6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="14">
         <v>400</v>
@@ -1006,6 +985,27 @@
         <v>103000</v>
       </c>
       <c r="G5" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="14">
+        <v>400</v>
+      </c>
+      <c r="F6" s="14">
+        <v>103000</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1032,7 +1032,7 @@
     <col min="4" max="4" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
@@ -1079,7 +1079,7 @@
         <v>100000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1115,13 +1115,13 @@
         <v>999999</v>
       </c>
       <c r="E4" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F4" s="2">
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1132,18 +1132,167 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2571509-78DE-47F4-8E56-20BCCF573F89}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1234</v>
+      </c>
+      <c r="I2" s="2">
+        <v>200</v>
+      </c>
+      <c r="J2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2">
+        <v>200</v>
+      </c>
+      <c r="J3" s="2">
+        <v>100000</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5">
+        <v>999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>200</v>
+      </c>
+      <c r="J4" s="2">
+        <v>100000</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C10F18-6774-4DA2-A97E-6CA070C2B102}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
@@ -1190,7 +1339,7 @@
         <v>100000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1226,34 +1375,19 @@
         <v>999999</v>
       </c>
       <c r="E4" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F4" s="2">
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B7AC17-C732-4418-992A-1163E8EC11BE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1262,7 +1396,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1311,7 +1445,7 @@
         <v>100000</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1331,7 +1465,7 @@
         <v>100000</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
@@ -1351,7 +1485,7 @@
         <v>100000</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
@@ -1371,7 +1505,7 @@
         <v>100000</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
@@ -1391,7 +1525,7 @@
         <v>100000</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1406,14 +1540,18 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="30.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
@@ -1460,7 +1598,7 @@
         <v>100000</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1483,7 +1621,7 @@
         <v>100000</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1519,13 +1657,13 @@
         <v>999999</v>
       </c>
       <c r="E5" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F5" s="2">
         <v>103000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABA1A47-83BA-4639-B5C7-2691922ED85D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C76FDC1-E1E6-411A-86CD-F2FF7D8F59FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createEntity" sheetId="5" r:id="rId1"/>
     <sheet name="updateEntity" sheetId="3" r:id="rId2"/>
     <sheet name="getEntityById" sheetId="2" r:id="rId3"/>
     <sheet name="filterEntityByProperty" sheetId="9" r:id="rId4"/>
-    <sheet name="deleteEntity" sheetId="4" r:id="rId5"/>
-    <sheet name="getRelations" sheetId="6" r:id="rId6"/>
-    <sheet name="getRelationById" sheetId="7" r:id="rId7"/>
+    <sheet name="getEntities" sheetId="12" r:id="rId5"/>
+    <sheet name="deleteEntity" sheetId="4" r:id="rId6"/>
+    <sheet name="getRelations" sheetId="6" r:id="rId7"/>
+    <sheet name="getRelationById" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
   <si>
     <t>testEntity1</t>
   </si>
@@ -105,9 +106,6 @@
     <t>{}</t>
   </si>
   <si>
-    <t>entity id invalid</t>
-  </si>
-  <si>
     <t>labels</t>
   </si>
   <si>
@@ -141,51 +139,15 @@
     <t>iEMS-Entity-mgmt-Test-2</t>
   </si>
   <si>
-    <t>iEMS-Entity-mgmt-Test-9-var1</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-9-var2</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-9-var3</t>
-  </si>
-  <si>
     <t>iEMS-Entity-mgmt-Test-3</t>
   </si>
   <si>
-    <t>iEMS-Entity-mgmt-Test-6-var1</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-6-var2</t>
-  </si>
-  <si>
     <t>iEMS-Entity-mgmt-Test-4</t>
   </si>
   <si>
-    <t>iEMS-Entity-mgmt-Test-5-var1</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-17-var2</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-17-var3</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-17-var4</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-17-var5</t>
-  </si>
-  <si>
     <t>iEMS-Entity-mgmt-Test-18</t>
   </si>
   <si>
-    <t>iEMS-Entity-mgmt-Test-19-var1</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-19-var2</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -193,9 +155,6 @@
   </si>
   <si>
     <t>unit, not_exist_relation</t>
-  </si>
-  <si>
-    <t>iEMS-Entity-mgmt-Test-17-var1</t>
   </si>
   <si>
     <t>good request, get all relations</t>
@@ -316,6 +275,102 @@
   </si>
   <si>
     <t>relation does not exist</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-5</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>bad request, label is null</t>
+  </si>
+  <si>
+    <t>testEntity3</t>
+  </si>
+  <si>
+    <t>bad request, properties-metadata_node_type is null</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-6</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-9</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-10</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-11</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-12</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-14</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-13</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-15</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-16</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-17</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-19</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-20</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-21</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-22</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-23</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-24</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-25</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-26</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-27</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-28</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-29</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-30</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-31</t>
+  </si>
+  <si>
+    <t>iEMS-Entity-mgmt-Test-32</t>
   </si>
 </sst>
 </file>
@@ -717,26 +772,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CD2C6C-7513-4EBA-9D12-F75700A492B3}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.77734375" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.21875" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="8" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.77734375" style="8"/>
   </cols>
   <sheetData>
@@ -751,25 +806,25 @@
         <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>4</v>
@@ -783,7 +838,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>1</v>
@@ -795,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J2" s="11">
         <v>0</v>
@@ -819,7 +874,7 @@
         <v>100000</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -827,18 +882,30 @@
         <v>25</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1234</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
       <c r="K3" s="9">
         <v>400</v>
       </c>
@@ -846,26 +913,38 @@
         <v>103000</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="9">
+        <v>1234</v>
+      </c>
       <c r="D4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="11"/>
+      <c r="F4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
       <c r="K4" s="9">
         <v>400</v>
       </c>
@@ -873,7 +952,89 @@
         <v>103000</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1234</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>400</v>
+      </c>
+      <c r="L5" s="9">
+        <v>103000</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1234</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>400</v>
+      </c>
+      <c r="L6" s="9">
+        <v>103000</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -887,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7AC29F-128C-4F8E-8DB9-32DDC8738C5B}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -908,7 +1069,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>8</v>
@@ -925,7 +1086,7 @@
     </row>
     <row r="3" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>1</v>
@@ -934,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E3" s="14">
         <v>200</v>
@@ -943,12 +1104,12 @@
         <v>100000</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>13</v>
@@ -964,19 +1125,19 @@
         <v>103000</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E5" s="14">
         <v>400</v>
@@ -985,19 +1146,19 @@
         <v>103000</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="15" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E6" s="14">
         <v>400</v>
@@ -1006,7 +1167,7 @@
         <v>103000</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1021,7 +1182,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1044,7 +1205,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1061,7 +1222,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1079,12 +1240,12 @@
         <v>100000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1100,12 +1261,12 @@
         <v>103000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1121,7 +1282,7 @@
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1297,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1162,19 +1323,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>5</v>
@@ -1191,7 +1352,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1200,16 +1361,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H2" s="3">
         <v>1234</v>
@@ -1221,12 +1382,12 @@
         <v>100000</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1249,7 +1410,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1271,17 +1432,129 @@
       <c r="K4" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F02205-0A11-4FA8-921F-0678D65FEEFD}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2">
+        <v>200</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2">
+        <v>200</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>200</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C10F18-6774-4DA2-A97E-6CA070C2B102}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1304,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1321,7 +1594,7 @@
     </row>
     <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1339,12 +1612,12 @@
         <v>100000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1360,12 +1633,12 @@
         <v>103000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1381,151 +1654,7 @@
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE7825D-C3D3-4455-B765-0D831E376750}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="6">
-        <v>200</v>
-      </c>
-      <c r="E2" s="6">
-        <v>100000</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2">
-        <v>200</v>
-      </c>
-      <c r="E3" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="2">
-        <v>200</v>
-      </c>
-      <c r="E4" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2">
-        <v>200</v>
-      </c>
-      <c r="E5" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="2">
-        <v>200</v>
-      </c>
-      <c r="E6" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1536,11 +1665,208 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE7825D-C3D3-4455-B765-0D831E376750}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6">
+        <v>200</v>
+      </c>
+      <c r="F2" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="6">
+        <v>200</v>
+      </c>
+      <c r="F3" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="6">
+        <v>200</v>
+      </c>
+      <c r="F4" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2">
+        <v>200</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>200</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>200</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8CB3E4-B830-482F-A87D-FE5107D53FAD}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1563,10 +1889,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -1580,13 +1906,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D2" s="6">
         <v>108742</v>
@@ -1598,18 +1924,18 @@
         <v>100000</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D3" s="6">
         <v>104263</v>
@@ -1621,15 +1947,15 @@
         <v>100000</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
@@ -1642,15 +1968,15 @@
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2">
@@ -1663,7 +1989,7 @@
         <v>103000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C76FDC1-E1E6-411A-86CD-F2FF7D8F59FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A6C144-7F3F-45F0-9DD7-A9568827B659}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createEntity" sheetId="5" r:id="rId1"/>
@@ -292,9 +292,6 @@
     <t>bad request, label is null</t>
   </si>
   <si>
-    <t>testEntity3</t>
-  </si>
-  <si>
     <t>bad request, properties-metadata_node_type is null</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>iEMS-Entity-mgmt-Test-32</t>
+  </si>
+  <si>
+    <t>testEntity2</t>
   </si>
 </sst>
 </file>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CD2C6C-7513-4EBA-9D12-F75700A492B3}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -921,13 +921,13 @@
         <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="9">
         <v>1234</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
@@ -952,7 +952,7 @@
         <v>103000</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1086,7 +1086,7 @@
     </row>
     <row r="3" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>1</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="6" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>10</v>
@@ -1167,7 +1167,7 @@
         <v>103000</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>32</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>32</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="5" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -1865,7 +1865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8CB3E4-B830-482F-A87D-FE5107D53FAD}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>36</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>35</v>

--- a/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A6C144-7F3F-45F0-9DD7-A9568827B659}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AAB990-6BEB-46C4-998A-B985DFCCA250}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -775,7 +775,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1048,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7AC29F-128C-4F8E-8DB9-32DDC8738C5B}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.10.0.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AAB990-6BEB-46C4-998A-B985DFCCA250}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F2CA7B-7523-4A1A-844D-17965530059E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createEntity" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="94">
   <si>
     <t>testEntity1</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>testEntity2</t>
+  </si>
+  <si>
+    <t>node type not valid</t>
   </si>
 </sst>
 </file>
@@ -775,24 +778,24 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="42.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="42.08984375" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.77734375" style="8"/>
+    <col min="11" max="11" width="8.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.81640625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -952,7 +955,7 @@
         <v>103000</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1052,16 +1055,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="30.5546875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="13" customWidth="1"/>
-    <col min="5" max="7" width="12.5546875" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="13"/>
+    <col min="1" max="2" width="30.54296875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="36.6328125" style="13" customWidth="1"/>
+    <col min="5" max="7" width="12.54296875" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="169" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>68</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
@@ -1128,7 +1131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="169" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>52</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="169" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>69</v>
       </c>
@@ -1185,16 +1188,16 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1300,19 +1303,19 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1446,16 +1449,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="21.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1557,16 +1560,16 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1592,7 +1595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>78</v>
       </c>
@@ -1672,16 +1675,16 @@
       <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="35.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1768,7 +1771,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
@@ -1869,16 +1872,16 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">

--- a/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.10.0.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F2CA7B-7523-4A1A-844D-17965530059E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30E4073-93E0-42D5-99F1-637659F1F605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="800" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createEntity" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="96">
   <si>
     <t>testEntity1</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>node type not valid</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Entity [[999999]] not exist</t>
   </si>
 </sst>
 </file>
@@ -777,28 +783,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CD2C6C-7513-4EBA-9D12-F75700A492B3}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="42.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.61328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="42.07421875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.3828125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.84375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.15234375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.4609375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.53515625" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.81640625" style="8"/>
+    <col min="11" max="11" width="8.3828125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.3828125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.84375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.84375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -839,7 +845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
@@ -880,7 +886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
@@ -919,7 +925,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -958,7 +964,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
@@ -999,7 +1005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>62</v>
       </c>
@@ -1055,16 +1061,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" style="13" customWidth="1"/>
-    <col min="5" max="7" width="12.54296875" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="13"/>
+    <col min="1" max="2" width="30.53515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16.61328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="36.61328125" style="13" customWidth="1"/>
+    <col min="5" max="7" width="12.53515625" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="8.84375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="169" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="154.30000000000001" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>68</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="169" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="154.30000000000001" x14ac:dyDescent="0.4">
       <c r="A5" s="14" t="s">
         <v>52</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="169" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="154.30000000000001" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
         <v>69</v>
       </c>
@@ -1185,22 +1191,22 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="3" max="3" width="9.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1223,7 +1229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -1246,7 +1252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1303,22 +1309,22 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.81640625" style="1"/>
+    <col min="3" max="3" width="9.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.84375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.15234375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.4609375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1353,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
@@ -1388,7 +1394,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
@@ -1411,7 +1417,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>75</v>
       </c>
@@ -1446,22 +1452,22 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="21.921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1484,7 +1490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>76</v>
       </c>
@@ -1500,10 +1506,10 @@
         <v>100000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>77</v>
       </c>
@@ -1521,10 +1527,10 @@
         <v>100000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>100000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1560,19 +1566,19 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.53515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="5" max="5" width="8.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1595,7 +1601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>78</v>
       </c>
@@ -1618,7 +1624,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>79</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>80</v>
       </c>
@@ -1671,23 +1677,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE7825D-C3D3-4455-B765-0D831E376750}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="35.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.15234375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3828125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
@@ -1726,10 +1732,10 @@
         <v>100000</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
@@ -1747,10 +1753,10 @@
         <v>100000</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>83</v>
       </c>
@@ -1768,10 +1774,10 @@
         <v>100000</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>84</v>
       </c>
@@ -1789,10 +1795,10 @@
         <v>100000</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>85</v>
       </c>
@@ -1812,10 +1818,10 @@
         <v>100000</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>86</v>
       </c>
@@ -1833,10 +1839,10 @@
         <v>100000</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
@@ -1854,7 +1860,7 @@
         <v>100000</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1872,19 +1878,19 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.81640625" style="1"/>
+    <col min="4" max="4" width="8.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1907,7 +1913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -1953,7 +1959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>90</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>

--- a/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30E4073-93E0-42D5-99F1-637659F1F605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B5E6E9-2DA5-4B35-A07F-CC4A4201E0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="800" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createEntity" sheetId="5" r:id="rId1"/>
@@ -274,9 +274,6 @@
     <t>entity does not exist</t>
   </si>
   <si>
-    <t>relation does not exist</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
@@ -380,6 +377,9 @@
   </si>
   <si>
     <t>Entity [[999999]] not exist</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.CompletionException: org.apache.tinkerpop.gremlin.driver.exception.ResponseException</t>
   </si>
 </sst>
 </file>
@@ -891,7 +891,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="9">
         <v>1234</v>
@@ -930,13 +930,13 @@
         <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="9">
         <v>1234</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
@@ -961,7 +961,7 @@
         <v>103000</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -1007,7 +1007,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>53</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="3" spans="1:7" ht="154.30000000000001" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>1</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="6" spans="1:7" ht="154.30000000000001" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>10</v>
@@ -1176,7 +1176,7 @@
         <v>103000</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +1191,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1270,12 +1270,12 @@
         <v>103000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1291,7 +1291,7 @@
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1478,7 +1478,7 @@
         <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1506,19 +1506,19 @@
         <v>100000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2">
         <v>200</v>
@@ -1527,7 +1527,7 @@
         <v>100000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2">
         <v>200</v>
@@ -1548,7 +1548,7 @@
         <v>100000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1563,7 +1563,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -1677,7 +1677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE7825D-C3D3-4455-B765-0D831E376750}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1704,7 +1704,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>32</v>
@@ -1732,19 +1732,19 @@
         <v>100000</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="6">
         <v>200</v>
@@ -1753,19 +1753,19 @@
         <v>100000</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="6">
         <v>200</v>
@@ -1774,12 +1774,12 @@
         <v>100000</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -1795,12 +1795,12 @@
         <v>100000</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -1809,7 +1809,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2">
         <v>200</v>
@@ -1818,12 +1818,12 @@
         <v>100000</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -1839,12 +1839,12 @@
         <v>100000</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -1860,7 +1860,7 @@
         <v>100000</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1874,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8CB3E4-B830-482F-A87D-FE5107D53FAD}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>36</v>
@@ -1977,12 +1977,12 @@
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>35</v>
@@ -1998,7 +1998,7 @@
         <v>103000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B5E6E9-2DA5-4B35-A07F-CC4A4201E0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64FAF32-882B-4DE6-8CDD-3AD78894676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createEntity" sheetId="5" r:id="rId1"/>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ECACFD-75AA-40A8-8500-FACA5E36F33B}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
@@ -1267,7 +1267,7 @@
         <v>400</v>
       </c>
       <c r="F3" s="2">
-        <v>103000</v>
+        <v>101400</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>95</v>
@@ -1288,7 +1288,7 @@
         <v>400</v>
       </c>
       <c r="F4" s="2">
-        <v>103000</v>
+        <v>101400</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>94</v>
@@ -1874,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8CB3E4-B830-482F-A87D-FE5107D53FAD}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-backup\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E910C88C-0219-40C1-ACB6-EAAA4A6FE971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EF32D1-8B2C-42C5-92D6-668B8025C810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publishCheck" sheetId="21" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="391">
   <si>
     <t>testEntity1</t>
   </si>
@@ -3855,35 +3855,41 @@
     <t>snc-entityMgmt-publishCheck-update-Test-22</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Validation failed!</t>
+  </si>
+  <si>
+    <t>Edge [[abcde123]] not exist!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4278,7 +4284,7 @@
       <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="21" max="21" width="60.5546875" customWidth="1"/>
     <col min="22" max="22" width="48.21875" customWidth="1"/>
@@ -4286,7 +4292,7 @@
     <col min="28" max="28" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="21:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="21:28">
       <c r="U1" s="9" t="s">
         <v>7</v>
       </c>
@@ -4312,7 +4318,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="21:28" ht="409.6">
       <c r="U2" s="10" t="s">
         <v>232</v>
       </c>
@@ -4334,7 +4340,7 @@
       <c r="AA2" s="19"/>
       <c r="AB2" s="5"/>
     </row>
-    <row r="3" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="21:28" ht="409.6">
       <c r="U3" s="10" t="s">
         <v>234</v>
       </c>
@@ -4358,7 +4364,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="21:28" ht="409.6">
       <c r="U4" s="10" t="s">
         <v>239</v>
       </c>
@@ -4382,7 +4388,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="21:28" ht="409.6">
       <c r="U5" s="10" t="s">
         <v>242</v>
       </c>
@@ -4406,7 +4412,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="21:28" ht="409.6">
       <c r="U6" s="10" t="s">
         <v>246</v>
       </c>
@@ -4428,7 +4434,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="21:28" ht="409.6">
       <c r="U7" s="10" t="s">
         <v>249</v>
       </c>
@@ -4452,7 +4458,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="21:28" ht="409.6">
       <c r="U8" s="10" t="s">
         <v>253</v>
       </c>
@@ -4474,7 +4480,7 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
     </row>
-    <row r="9" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="21:28" ht="409.6">
       <c r="U9" s="10" t="s">
         <v>256</v>
       </c>
@@ -4498,7 +4504,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="21:28" ht="409.6">
       <c r="U10" s="10" t="s">
         <v>259</v>
       </c>
@@ -4520,7 +4526,7 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
     </row>
-    <row r="11" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="21:28" ht="409.6">
       <c r="U11" s="10" t="s">
         <v>262</v>
       </c>
@@ -4542,7 +4548,7 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
     </row>
-    <row r="12" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="21:28" ht="409.6">
       <c r="U12" s="10" t="s">
         <v>265</v>
       </c>
@@ -4566,7 +4572,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="21:28" ht="409.6">
       <c r="U13" s="10" t="s">
         <v>269</v>
       </c>
@@ -4590,7 +4596,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="21:28" ht="409.6">
       <c r="U14" s="10" t="s">
         <v>273</v>
       </c>
@@ -4614,7 +4620,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="21:28" ht="409.6">
       <c r="U15" s="10" t="s">
         <v>276</v>
       </c>
@@ -4638,7 +4644,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="16" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="21:28" ht="409.6">
       <c r="U16" s="10" t="s">
         <v>279</v>
       </c>
@@ -4660,7 +4666,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="21:28" ht="409.6">
       <c r="U17" s="10" t="s">
         <v>282</v>
       </c>
@@ -4682,7 +4688,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="21:28" ht="409.6">
       <c r="U18" s="10" t="s">
         <v>285</v>
       </c>
@@ -4706,7 +4712,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="21:28" ht="409.6">
       <c r="U19" s="10" t="s">
         <v>288</v>
       </c>
@@ -4730,7 +4736,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="21:28" ht="409.6">
       <c r="U20" s="10" t="s">
         <v>291</v>
       </c>
@@ -4754,7 +4760,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="21:28" ht="409.6">
       <c r="U21" s="10" t="s">
         <v>294</v>
       </c>
@@ -4778,7 +4784,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="21:28" ht="409.6">
       <c r="U22" s="10" t="s">
         <v>298</v>
       </c>
@@ -4802,7 +4808,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="21:28" ht="409.6">
       <c r="U23" s="10" t="s">
         <v>302</v>
       </c>
@@ -4826,7 +4832,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="24" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="21:28" ht="409.6">
       <c r="U24" s="10" t="s">
         <v>305</v>
       </c>
@@ -4849,7 +4855,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="21:28" ht="409.6">
       <c r="U25" s="10" t="s">
         <v>309</v>
       </c>
@@ -4872,7 +4878,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="26" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="21:28" ht="409.6">
       <c r="U26" s="10" t="s">
         <v>313</v>
       </c>
@@ -4892,7 +4898,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="21:28" ht="409.6">
       <c r="U27" s="10" t="s">
         <v>316</v>
       </c>
@@ -4912,7 +4918,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="21:28" ht="409.6">
       <c r="U28" s="10" t="s">
         <v>319</v>
       </c>
@@ -4948,7 +4954,7 @@
       <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="32" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.109375" style="5" bestFit="1" customWidth="1"/>
@@ -4963,7 +4969,7 @@
     <col min="11" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -4995,7 +5001,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="111" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -5023,7 +5029,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="111" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>60</v>
       </c>
@@ -5045,7 +5051,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="111" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>61</v>
       </c>
@@ -5067,7 +5073,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="111" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>62</v>
       </c>
@@ -5089,7 +5095,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="111" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
@@ -5111,7 +5117,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="111" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
@@ -5133,7 +5139,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="111" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>65</v>
       </c>
@@ -5159,7 +5165,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="111" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>66</v>
       </c>
@@ -5185,7 +5191,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="111" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
@@ -5211,7 +5217,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="111" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>154</v>
       </c>
@@ -5237,7 +5243,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="111" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>155</v>
       </c>
@@ -5263,7 +5269,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="111" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>156</v>
       </c>
@@ -5289,7 +5295,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="111" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>157</v>
       </c>
@@ -5315,7 +5321,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="111" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>158</v>
       </c>
@@ -5341,7 +5347,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="111" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>174</v>
       </c>
@@ -5367,7 +5373,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="111" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>175</v>
       </c>
@@ -5393,7 +5399,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="111" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>184</v>
       </c>
@@ -5419,7 +5425,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="111" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>185</v>
       </c>
@@ -5445,7 +5451,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="111" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>186</v>
       </c>
@@ -5471,7 +5477,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="111" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>187</v>
       </c>
@@ -5497,7 +5503,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="111" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>188</v>
       </c>
@@ -5523,7 +5529,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="111" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>192</v>
       </c>
@@ -5549,7 +5555,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="111" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>201</v>
       </c>
@@ -5575,7 +5581,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="111" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>208</v>
       </c>
@@ -5612,11 +5618,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F5FE0E-8788-403D-8502-6CD26A71119B}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="31.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.77734375" style="14" bestFit="1" customWidth="1"/>
@@ -5632,7 +5638,7 @@
     <col min="12" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -5667,7 +5673,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="106.2" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>26</v>
       </c>
@@ -5698,7 +5704,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="106.2" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>27</v>
       </c>
@@ -5721,7 +5727,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="106.2" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
@@ -5748,7 +5754,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="106.2" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
@@ -5767,13 +5773,13 @@
         <v>86</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>141</v>
+        <v>389</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="106.2" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
@@ -5814,10 +5820,10 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="32" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" style="14" bestFit="1" customWidth="1"/>
@@ -5831,7 +5837,7 @@
     <col min="10" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -5860,7 +5866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="316.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="303.60000000000002">
       <c r="A2" s="11" t="s">
         <v>70</v>
       </c>
@@ -5889,7 +5895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="27.6">
       <c r="A3" s="11" t="s">
         <v>72</v>
       </c>
@@ -5909,10 +5915,10 @@
         <v>101400</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27.6">
       <c r="A4" s="11" t="s">
         <v>73</v>
       </c>
@@ -5950,7 +5956,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -5961,7 +5967,7 @@
     <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -5981,7 +5987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>75</v>
       </c>
@@ -5999,7 +6005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>76</v>
       </c>
@@ -6019,7 +6025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>77</v>
       </c>
@@ -6039,7 +6045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
         <v>78</v>
       </c>
@@ -6071,10 +6077,10 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="30.77734375" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.109375" style="18" bestFit="1" customWidth="1"/>
@@ -6088,7 +6094,7 @@
     <col min="10" max="16384" width="8.77734375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
@@ -6117,7 +6123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="148.19999999999999" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>79</v>
       </c>
@@ -6146,7 +6152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="148.19999999999999" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>80</v>
       </c>
@@ -6173,7 +6179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="27.6">
       <c r="A4" s="11" t="s">
         <v>81</v>
       </c>
@@ -6186,17 +6192,17 @@
       <c r="F4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10">
-        <v>400</v>
+      <c r="G4" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27.6">
       <c r="A5" s="11" t="s">
         <v>83</v>
       </c>
@@ -6230,11 +6236,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F350B3-2BA8-4FFC-BD4B-B88814906262}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="72.33203125" customWidth="1"/>
     <col min="4" max="4" width="31.5546875" customWidth="1"/>
@@ -6242,7 +6248,7 @@
     <col min="8" max="8" width="109.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.6">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -6268,7 +6274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="409.6">
       <c r="A2" s="10" t="s">
         <v>325</v>
       </c>
@@ -6309,7 +6315,7 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="54.33203125" customWidth="1"/>
     <col min="2" max="2" width="78.88671875" customWidth="1"/>
@@ -6318,7 +6324,7 @@
     <col min="8" max="8" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -6344,7 +6350,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="409.6">
       <c r="A2" s="10" t="s">
         <v>329</v>
       </c>
@@ -6366,7 +6372,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="409.6">
       <c r="A3" s="10" t="s">
         <v>342</v>
       </c>
@@ -6389,7 +6395,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="409.6">
       <c r="A4" s="10" t="s">
         <v>344</v>
       </c>
@@ -6412,7 +6418,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="207" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="216">
       <c r="A5" s="10" t="s">
         <v>370</v>
       </c>
@@ -6435,7 +6441,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="234.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="244.8">
       <c r="A6" s="10" t="s">
         <v>371</v>
       </c>
@@ -6458,7 +6464,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="409.6">
       <c r="A7" s="10" t="s">
         <v>372</v>
       </c>
@@ -6481,7 +6487,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="409.6">
       <c r="A8" s="10" t="s">
         <v>373</v>
       </c>
@@ -6501,7 +6507,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="409.6">
       <c r="A9" s="10" t="s">
         <v>374</v>
       </c>
@@ -6521,7 +6527,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="409.6">
       <c r="A10" s="10" t="s">
         <v>375</v>
       </c>
@@ -6544,7 +6550,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="409.6">
       <c r="A11" s="10" t="s">
         <v>376</v>
       </c>
@@ -6567,7 +6573,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="409.6">
       <c r="A12" s="10" t="s">
         <v>377</v>
       </c>
@@ -6590,7 +6596,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="409.6">
       <c r="A13" s="10" t="s">
         <v>378</v>
       </c>
@@ -6613,7 +6619,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="409.6">
       <c r="A14" s="10" t="s">
         <v>379</v>
       </c>
@@ -6633,7 +6639,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="409.6">
       <c r="A15" s="10" t="s">
         <v>380</v>
       </c>
@@ -6653,7 +6659,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="409.6">
       <c r="A16" s="10" t="s">
         <v>381</v>
       </c>
@@ -6676,7 +6682,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="409.6">
       <c r="A17" s="10" t="s">
         <v>382</v>
       </c>
@@ -6699,7 +6705,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="409.6">
       <c r="A18" s="10" t="s">
         <v>383</v>
       </c>
@@ -6722,7 +6728,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="409.6">
       <c r="A19" s="10" t="s">
         <v>384</v>
       </c>
@@ -6745,7 +6751,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="409.6">
       <c r="A20" s="10" t="s">
         <v>385</v>
       </c>
@@ -6768,7 +6774,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="409.6">
       <c r="A21" s="10" t="s">
         <v>386</v>
       </c>
@@ -6791,7 +6797,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="409.6">
       <c r="A22" s="10" t="s">
         <v>387</v>
       </c>
@@ -6814,7 +6820,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="207" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="216">
       <c r="A23" s="10" t="s">
         <v>388</v>
       </c>
@@ -6853,7 +6859,7 @@
       <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="31.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" style="14" bestFit="1" customWidth="1"/>
@@ -6867,7 +6873,7 @@
     <col min="10" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -6896,7 +6902,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="106.2" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
@@ -6921,7 +6927,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="106.2" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
@@ -6942,7 +6948,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="106.2" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -6963,7 +6969,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="106.2" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
@@ -6984,7 +6990,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="106.2" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
@@ -7009,7 +7015,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="106.2" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
@@ -7034,7 +7040,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="106.2" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -7059,7 +7065,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="106.2" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>91</v>
       </c>
@@ -7084,7 +7090,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="106.2" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>92</v>
       </c>
@@ -7109,7 +7115,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="106.2" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>93</v>
       </c>
@@ -7134,7 +7140,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="106.2" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>110</v>
       </c>
@@ -7159,7 +7165,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="106.2" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>111</v>
       </c>
@@ -7184,7 +7190,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="106.2" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>112</v>
       </c>
@@ -7209,7 +7215,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="106.2" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>117</v>
       </c>
@@ -7234,7 +7240,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="106.2" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>118</v>
       </c>
@@ -7259,7 +7265,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="106.2" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>119</v>
       </c>
@@ -7284,7 +7290,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="106.2" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>120</v>
       </c>
@@ -7309,7 +7315,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="106.2" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>121</v>
       </c>
@@ -7334,7 +7340,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="106.2" customHeight="1">
       <c r="A20" s="10" t="s">
         <v>122</v>
       </c>
@@ -7370,11 +7376,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B97966-D445-41D3-A12C-5E1768A05176}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="31.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="14" bestFit="1" customWidth="1"/>
@@ -7389,7 +7395,7 @@
     <col min="11" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -7421,7 +7427,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="106.2" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>26</v>
       </c>
@@ -7449,7 +7455,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="106.2" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>27</v>
       </c>
@@ -7471,7 +7477,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="106.2" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
@@ -7497,7 +7503,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="106.2" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
@@ -7509,19 +7515,19 @@
         <v>139</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="106.2" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
@@ -7561,10 +7567,10 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="30.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="5" bestFit="1" customWidth="1"/>
@@ -7577,7 +7583,7 @@
     <col min="9" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -7603,7 +7609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="165.6">
       <c r="A2" s="10" t="s">
         <v>38</v>
       </c>
@@ -7629,7 +7635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="69">
       <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
@@ -7651,7 +7657,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
@@ -7688,7 +7694,7 @@
       <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -7699,7 +7705,7 @@
     <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -7719,7 +7725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>41</v>
       </c>
@@ -7737,7 +7743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>42</v>
       </c>
@@ -7757,7 +7763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>43</v>
       </c>
@@ -7777,7 +7783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
         <v>44</v>
       </c>
@@ -7812,7 +7818,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="35.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" customWidth="1"/>
@@ -7823,7 +7829,7 @@
     <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -7843,7 +7849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>46</v>
       </c>
@@ -7863,7 +7869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>47</v>
       </c>
@@ -7883,7 +7889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
@@ -7908,11 +7914,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C10F18-6774-4DA2-A97E-6CA070C2B102}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:H5"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="30.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.109375" style="5" bestFit="1" customWidth="1"/>
@@ -7925,7 +7931,7 @@
     <col min="9" max="16384" width="8.77734375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
@@ -7951,7 +7957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="165.6">
       <c r="A2" s="10" t="s">
         <v>38</v>
       </c>
@@ -7977,7 +7983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="303.60000000000002">
       <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
@@ -8003,7 +8009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="69">
       <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
@@ -8025,7 +8031,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
         <v>55</v>
       </c>

--- a/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EF32D1-8B2C-42C5-92D6-668B8025C810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEFBA33-60BE-4B3F-8CEB-54C64E0996D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publishCheck" sheetId="21" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="391">
   <si>
     <t>testEntity1</t>
   </si>
@@ -714,9 +714,6 @@
   </si>
   <si>
     <t>NOT_EXIST</t>
-  </si>
-  <si>
-    <t>java.util.concurrent.CompletionException: org.apache.tinkerpop.gremlin.driver.exception.ResponseException</t>
   </si>
   <si>
     <t>[
@@ -3860,6 +3857,9 @@
   </si>
   <si>
     <t>Edge [[abcde123]] not exist!</t>
+  </si>
+  <si>
+    <t>Entity [[abcde123]] not exist!</t>
   </si>
 </sst>
 </file>
@@ -4312,21 +4312,21 @@
         <v>2</v>
       </c>
       <c r="AA1" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="2" spans="21:28" ht="409.6">
       <c r="U2" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="V2" s="11" t="s">
-        <v>233</v>
-      </c>
       <c r="W2" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X2" s="12" t="s">
         <v>35</v>
@@ -4342,13 +4342,13 @@
     </row>
     <row r="3" spans="21:28" ht="409.6">
       <c r="U3" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="V3" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="W3" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>236</v>
       </c>
       <c r="X3" s="5">
         <v>200</v>
@@ -4357,22 +4357,22 @@
         <v>100000</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA3" s="14"/>
       <c r="AB3" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="21:28" ht="409.6">
       <c r="U4" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="V4" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="W4" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>241</v>
       </c>
       <c r="X4" s="5">
         <v>200</v>
@@ -4381,22 +4381,22 @@
         <v>100000</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA4" s="14"/>
       <c r="AB4" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="21:28" ht="409.6">
       <c r="U5" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="V5" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="W5" s="14" t="s">
         <v>243</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>244</v>
       </c>
       <c r="X5" s="5">
         <v>200</v>
@@ -4405,22 +4405,22 @@
         <v>100000</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA5" s="5"/>
       <c r="AB5" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="21:28" ht="409.6">
       <c r="U6" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="V6" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="W6" s="14" t="s">
         <v>247</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>248</v>
       </c>
       <c r="X6" s="5">
         <v>200</v>
@@ -4429,20 +4429,20 @@
         <v>100000</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="21:28" ht="409.6">
       <c r="U7" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="V7" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="W7" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>251</v>
       </c>
       <c r="X7" s="5">
         <v>200</v>
@@ -4451,22 +4451,22 @@
         <v>100000</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="21:28" ht="409.6">
       <c r="U8" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="V8" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="W8" s="14" t="s">
         <v>254</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>255</v>
       </c>
       <c r="X8" s="5">
         <v>200</v>
@@ -4475,20 +4475,20 @@
         <v>100000</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="21:28" ht="409.6">
       <c r="U9" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="V9" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="W9" s="14" t="s">
         <v>257</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>258</v>
       </c>
       <c r="X9" s="5">
         <v>200</v>
@@ -4497,7 +4497,7 @@
         <v>100000</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5" t="s">
@@ -4506,13 +4506,13 @@
     </row>
     <row r="10" spans="21:28" ht="409.6">
       <c r="U10" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="V10" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="W10" s="14" t="s">
         <v>260</v>
-      </c>
-      <c r="W10" s="14" t="s">
-        <v>261</v>
       </c>
       <c r="X10" s="5">
         <v>200</v>
@@ -4521,20 +4521,20 @@
         <v>100000</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
     </row>
     <row r="11" spans="21:28" ht="409.6">
       <c r="U11" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="V11" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="W11" s="14" t="s">
         <v>263</v>
-      </c>
-      <c r="W11" s="14" t="s">
-        <v>264</v>
       </c>
       <c r="X11" s="5">
         <v>200</v>
@@ -4543,20 +4543,20 @@
         <v>100000</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
     </row>
     <row r="12" spans="21:28" ht="409.6">
       <c r="U12" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="V12" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="V12" s="14" t="s">
+      <c r="W12" s="14" t="s">
         <v>266</v>
-      </c>
-      <c r="W12" s="14" t="s">
-        <v>267</v>
       </c>
       <c r="X12" s="5">
         <v>200</v>
@@ -4565,22 +4565,22 @@
         <v>100000</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="21:28" ht="409.6">
       <c r="U13" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="V13" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="V13" s="14" t="s">
+      <c r="W13" s="14" t="s">
         <v>270</v>
-      </c>
-      <c r="W13" s="14" t="s">
-        <v>271</v>
       </c>
       <c r="X13" s="5">
         <v>200</v>
@@ -4589,22 +4589,22 @@
         <v>100000</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="21:28" ht="409.6">
       <c r="U14" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="V14" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="V14" s="14" t="s">
+      <c r="W14" s="14" t="s">
         <v>274</v>
-      </c>
-      <c r="W14" s="14" t="s">
-        <v>275</v>
       </c>
       <c r="X14" s="5">
         <v>200</v>
@@ -4613,22 +4613,22 @@
         <v>100000</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="21:28" ht="409.6">
       <c r="U15" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="V15" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="V15" s="14" t="s">
+      <c r="W15" s="14" t="s">
         <v>277</v>
-      </c>
-      <c r="W15" s="14" t="s">
-        <v>278</v>
       </c>
       <c r="X15" s="5">
         <v>200</v>
@@ -4637,22 +4637,22 @@
         <v>100000</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="21:28" ht="409.6">
       <c r="U16" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="V16" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="V16" s="14" t="s">
+      <c r="W16" s="14" t="s">
         <v>280</v>
-      </c>
-      <c r="W16" s="14" t="s">
-        <v>281</v>
       </c>
       <c r="X16" s="5">
         <v>200</v>
@@ -4661,20 +4661,20 @@
         <v>100000</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
     <row r="17" spans="21:28" ht="409.6">
       <c r="U17" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="V17" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="V17" s="14" t="s">
+      <c r="W17" s="14" t="s">
         <v>283</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>284</v>
       </c>
       <c r="X17" s="5">
         <v>200</v>
@@ -4683,20 +4683,20 @@
         <v>100000</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
     <row r="18" spans="21:28" ht="409.6">
       <c r="U18" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="V18" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="V18" s="14" t="s">
+      <c r="W18" s="14" t="s">
         <v>286</v>
-      </c>
-      <c r="W18" s="14" t="s">
-        <v>287</v>
       </c>
       <c r="X18" s="5">
         <v>200</v>
@@ -4705,7 +4705,7 @@
         <v>100000</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5" t="s">
@@ -4714,13 +4714,13 @@
     </row>
     <row r="19" spans="21:28" ht="409.6">
       <c r="U19" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="V19" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="V19" s="14" t="s">
+      <c r="W19" s="14" t="s">
         <v>289</v>
-      </c>
-      <c r="W19" s="14" t="s">
-        <v>290</v>
       </c>
       <c r="X19" s="5">
         <v>200</v>
@@ -4729,7 +4729,7 @@
         <v>100000</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5" t="s">
@@ -4738,13 +4738,13 @@
     </row>
     <row r="20" spans="21:28" ht="409.6">
       <c r="U20" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="V20" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="V20" s="14" t="s">
+      <c r="W20" s="14" t="s">
         <v>292</v>
-      </c>
-      <c r="W20" s="14" t="s">
-        <v>293</v>
       </c>
       <c r="X20" s="5">
         <v>200</v>
@@ -4753,7 +4753,7 @@
         <v>100000</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5" t="s">
@@ -4762,13 +4762,13 @@
     </row>
     <row r="21" spans="21:28" ht="409.6">
       <c r="U21" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="V21" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="V21" s="14" t="s">
+      <c r="W21" s="14" t="s">
         <v>295</v>
-      </c>
-      <c r="W21" s="14" t="s">
-        <v>296</v>
       </c>
       <c r="X21" s="5">
         <v>200</v>
@@ -4777,22 +4777,22 @@
         <v>100000</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="21:28" ht="409.6">
       <c r="U22" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="V22" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="V22" s="14" t="s">
+      <c r="W22" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="W22" s="14" t="s">
-        <v>300</v>
       </c>
       <c r="X22" s="5">
         <v>200</v>
@@ -4801,22 +4801,22 @@
         <v>100000</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="21:28" ht="409.6">
       <c r="U23" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="V23" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="V23" s="14" t="s">
+      <c r="W23" s="14" t="s">
         <v>303</v>
-      </c>
-      <c r="W23" s="14" t="s">
-        <v>304</v>
       </c>
       <c r="X23" s="5">
         <v>200</v>
@@ -4825,22 +4825,22 @@
         <v>100000</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="21:28" ht="409.6">
       <c r="U24" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="V24" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="V24" s="14" t="s">
+      <c r="W24" s="20" t="s">
         <v>306</v>
-      </c>
-      <c r="W24" s="20" t="s">
-        <v>307</v>
       </c>
       <c r="X24" s="5">
         <v>200</v>
@@ -4849,21 +4849,21 @@
         <v>100000</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="21:28" ht="409.6">
       <c r="U25" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="V25" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="V25" s="14" t="s">
+      <c r="W25" s="20" t="s">
         <v>310</v>
-      </c>
-      <c r="W25" s="20" t="s">
-        <v>311</v>
       </c>
       <c r="X25" s="5">
         <v>200</v>
@@ -4872,21 +4872,21 @@
         <v>100000</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AB25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="21:28" ht="409.6">
       <c r="U26" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="V26" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="V26" s="14" t="s">
+      <c r="W26" s="20" t="s">
         <v>314</v>
-      </c>
-      <c r="W26" s="20" t="s">
-        <v>315</v>
       </c>
       <c r="X26" s="5">
         <v>200</v>
@@ -4895,18 +4895,18 @@
         <v>100000</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="21:28" ht="409.6">
       <c r="U27" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="V27" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="V27" s="14" t="s">
+      <c r="W27" s="20" t="s">
         <v>317</v>
-      </c>
-      <c r="W27" s="20" t="s">
-        <v>318</v>
       </c>
       <c r="X27" s="5">
         <v>200</v>
@@ -4915,18 +4915,18 @@
         <v>100000</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="21:28" ht="409.6">
       <c r="U28" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="V28" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="V28" s="14" t="s">
+      <c r="W28" s="20" t="s">
         <v>320</v>
-      </c>
-      <c r="W28" s="20" t="s">
-        <v>321</v>
       </c>
       <c r="X28" s="5">
         <v>200</v>
@@ -4935,7 +4935,7 @@
         <v>100000</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5006,13 +5006,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="8">
         <v>200</v>
@@ -5034,11 +5034,11 @@
         <v>60</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E3" s="8">
         <v>400</v>
@@ -5056,11 +5056,11 @@
         <v>61</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="8">
         <v>400</v>
@@ -5078,11 +5078,11 @@
         <v>62</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" s="8">
         <v>400</v>
@@ -5100,11 +5100,11 @@
         <v>63</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6" s="8">
         <v>400</v>
@@ -5122,11 +5122,11 @@
         <v>64</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="8">
         <v>400</v>
@@ -5144,11 +5144,11 @@
         <v>65</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E8" s="8">
         <v>400</v>
@@ -5162,7 +5162,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="6"/>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="111" customHeight="1">
@@ -5170,11 +5170,11 @@
         <v>66</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="8">
         <v>400</v>
@@ -5188,7 +5188,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="6"/>
       <c r="J9" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="111" customHeight="1">
@@ -5196,11 +5196,11 @@
         <v>67</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" s="8">
         <v>400</v>
@@ -5214,19 +5214,19 @@
       <c r="H10" s="12"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="111" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E11" s="8">
         <v>400</v>
@@ -5240,19 +5240,19 @@
       <c r="H11" s="12"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="111" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12" s="8">
         <v>400</v>
@@ -5271,14 +5271,14 @@
     </row>
     <row r="13" spans="1:10" ht="111" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="8">
         <v>400</v>
@@ -5297,14 +5297,14 @@
     </row>
     <row r="14" spans="1:10" ht="111" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E14" s="8">
         <v>400</v>
@@ -5318,19 +5318,19 @@
       <c r="H14" s="12"/>
       <c r="I14" s="6"/>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="111" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E15" s="8">
         <v>400</v>
@@ -5349,14 +5349,14 @@
     </row>
     <row r="16" spans="1:10" ht="111" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E16" s="8">
         <v>400</v>
@@ -5375,14 +5375,14 @@
     </row>
     <row r="17" spans="1:10" ht="111" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E17" s="8">
         <v>400</v>
@@ -5401,14 +5401,14 @@
     </row>
     <row r="18" spans="1:10" ht="111" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E18" s="8">
         <v>400</v>
@@ -5427,14 +5427,14 @@
     </row>
     <row r="19" spans="1:10" ht="111" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E19" s="8">
         <v>400</v>
@@ -5453,14 +5453,14 @@
     </row>
     <row r="20" spans="1:10" ht="111" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E20" s="8">
         <v>400</v>
@@ -5479,14 +5479,14 @@
     </row>
     <row r="21" spans="1:10" ht="111" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E21" s="8">
         <v>400</v>
@@ -5505,14 +5505,14 @@
     </row>
     <row r="22" spans="1:10" ht="111" customHeight="1">
       <c r="A22" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E22" s="8">
         <v>400</v>
@@ -5531,14 +5531,14 @@
     </row>
     <row r="23" spans="1:10" ht="111" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E23" s="8">
         <v>400</v>
@@ -5557,14 +5557,14 @@
     </row>
     <row r="24" spans="1:10" ht="111" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E24" s="8">
         <v>400</v>
@@ -5578,19 +5578,19 @@
       <c r="H24" s="12"/>
       <c r="I24" s="6"/>
       <c r="J24" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="111" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E25" s="8">
         <v>200</v>
@@ -5602,7 +5602,7 @@
         <v>16</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="7"/>
@@ -5618,7 +5618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F5FE0E-8788-403D-8502-6CD26A71119B}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -5678,16 +5678,16 @@
         <v>26</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="F2" s="12">
         <v>200</v>
@@ -5732,12 +5732,12 @@
         <v>30</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>85</v>
@@ -5759,12 +5759,12 @@
         <v>31</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>85</v>
@@ -5773,7 +5773,7 @@
         <v>86</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="6"/>
@@ -5788,10 +5788,10 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="F6" s="12">
         <v>200</v>
@@ -5874,10 +5874,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>71</v>
@@ -5915,7 +5915,7 @@
         <v>101400</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="27.6">
@@ -5938,7 +5938,7 @@
         <v>101400</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" s="2">
         <v>200</v>
@@ -6131,10 +6131,10 @@
         <v>82</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>71</v>
@@ -6161,10 +6161,10 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>58</v>
@@ -6213,7 +6213,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="10"/>
       <c r="F5" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G5" s="10">
         <v>200</v>
@@ -6259,10 +6259,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>4</v>
@@ -6276,19 +6276,19 @@
     </row>
     <row r="2" spans="1:8" ht="409.6">
       <c r="A2" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>35</v>
@@ -6344,21 +6344,21 @@
         <v>2</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="409.6">
       <c r="A2" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>35</v>
@@ -6374,13 +6374,13 @@
     </row>
     <row r="3" spans="1:8" ht="409.6">
       <c r="A3" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -6389,21 +6389,21 @@
         <v>100000</v>
       </c>
       <c r="F3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" t="s">
         <v>237</v>
-      </c>
-      <c r="H3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="409.6">
       <c r="A4" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -6412,21 +6412,21 @@
         <v>100000</v>
       </c>
       <c r="F4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" t="s">
         <v>237</v>
-      </c>
-      <c r="H4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="216">
       <c r="A5" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>345</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>346</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -6435,21 +6435,21 @@
         <v>100000</v>
       </c>
       <c r="F5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="244.8">
       <c r="A6" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>348</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>349</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -6458,21 +6458,21 @@
         <v>100000</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="409.6">
       <c r="A7" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>350</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>351</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -6481,21 +6481,21 @@
         <v>100000</v>
       </c>
       <c r="F7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="409.6">
       <c r="A8" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -6504,18 +6504,18 @@
         <v>100000</v>
       </c>
       <c r="F8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="409.6">
       <c r="A9" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -6524,18 +6524,18 @@
         <v>100000</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="409.6">
       <c r="A10" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -6544,7 +6544,7 @@
         <v>100000</v>
       </c>
       <c r="F10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H10" t="s">
         <v>109</v>
@@ -6552,13 +6552,13 @@
     </row>
     <row r="11" spans="1:8" ht="409.6">
       <c r="A11" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -6567,21 +6567,21 @@
         <v>100000</v>
       </c>
       <c r="F11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="409.6">
       <c r="A12" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>355</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>356</v>
       </c>
       <c r="D12">
         <v>200</v>
@@ -6590,21 +6590,21 @@
         <v>100000</v>
       </c>
       <c r="F12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="409.6">
       <c r="A13" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D13">
         <v>200</v>
@@ -6613,7 +6613,7 @@
         <v>100000</v>
       </c>
       <c r="F13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H13" t="s">
         <v>102</v>
@@ -6621,13 +6621,13 @@
     </row>
     <row r="14" spans="1:8" ht="409.6">
       <c r="A14" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D14">
         <v>200</v>
@@ -6636,18 +6636,18 @@
         <v>100000</v>
       </c>
       <c r="F14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="409.6">
       <c r="A15" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -6656,18 +6656,18 @@
         <v>100000</v>
       </c>
       <c r="F15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="409.6">
       <c r="A16" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D16">
         <v>200</v>
@@ -6676,21 +6676,21 @@
         <v>100000</v>
       </c>
       <c r="F16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="409.6">
       <c r="A17" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D17">
         <v>200</v>
@@ -6699,7 +6699,7 @@
         <v>100000</v>
       </c>
       <c r="F17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H17" t="s">
         <v>102</v>
@@ -6707,13 +6707,13 @@
     </row>
     <row r="18" spans="1:8" ht="409.6">
       <c r="A18" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -6722,7 +6722,7 @@
         <v>100000</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H18" t="s">
         <v>109</v>
@@ -6730,13 +6730,13 @@
     </row>
     <row r="19" spans="1:8" ht="409.6">
       <c r="A19" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -6745,21 +6745,21 @@
         <v>100000</v>
       </c>
       <c r="F19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="409.6">
       <c r="A20" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -6768,21 +6768,21 @@
         <v>100000</v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="409.6">
       <c r="A21" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B21" t="s">
+        <v>364</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>365</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>366</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -6791,21 +6791,21 @@
         <v>100000</v>
       </c>
       <c r="F21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="409.6">
       <c r="A22" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -6814,21 +6814,21 @@
         <v>100000</v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="216">
       <c r="A23" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B23" t="s">
+        <v>367</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>368</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>369</v>
       </c>
       <c r="D23">
         <v>200</v>
@@ -6837,7 +6837,7 @@
         <v>100000</v>
       </c>
       <c r="F23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H23" t="s">
         <v>109</v>
@@ -6932,7 +6932,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>96</v>
@@ -6953,7 +6953,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>88</v>
@@ -6974,7 +6974,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>97</v>
@@ -7070,7 +7070,7 @@
         <v>91</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>99</v>
@@ -7095,7 +7095,7 @@
         <v>92</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>105</v>
@@ -7237,7 +7237,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="6"/>
       <c r="I15" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="106.2" customHeight="1">
@@ -7348,7 +7348,7 @@
         <v>54</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>35</v>
@@ -7376,8 +7376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B97966-D445-41D3-A12C-5E1768A05176}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -7521,7 +7521,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>16</v>
+        <v>388</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="6"/>
@@ -7535,10 +7535,10 @@
         <v>137</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="E6" s="12">
         <v>200</v>
@@ -7567,7 +7567,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -7635,7 +7635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="69">
+    <row r="3" spans="1:8" ht="27.6">
       <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>101400</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>141</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -7676,7 +7676,7 @@
         <v>101400</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7771,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="2">
         <v>200</v>
@@ -7915,7 +7915,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="10">
         <v>200</v>
@@ -7991,7 +7991,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>57</v>
@@ -8009,7 +8009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="69">
+    <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
@@ -8021,14 +8021,14 @@
       <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="10">
-        <v>400</v>
+      <c r="F4" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -8041,7 +8041,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" s="10">
         <v>200</v>

--- a/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/iems-entity-management-test-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codes\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEFBA33-60BE-4B3F-8CEB-54C64E0996D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869E17FC-D31B-430C-B618-C7891C09B607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7376,8 +7376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B97966-D445-41D3-A12C-5E1768A05176}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -7515,13 +7515,13 @@
         <v>139</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>388</v>
+        <v>89</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="6"/>
